--- a/Gedung D/Laporan Produk Jadi Wire - 退火成品.xlsx
+++ b/Gedung D/Laporan Produk Jadi Wire - 退火成品.xlsx
@@ -32,9 +32,6 @@
     <t>W01-03000027</t>
   </si>
   <si>
-    <t>0,12 A</t>
-  </si>
-  <si>
     <t>W01-03000026</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>W01-03000013</t>
-  </si>
-  <si>
-    <t>0,16 A</t>
   </si>
   <si>
     <t>RINCIAN BERAT HASIL PRODUKSI PRODUKSI</t>
@@ -156,13 +150,7 @@
     <t>KURANG (kg)</t>
   </si>
   <si>
-    <t>0,20 A</t>
-  </si>
-  <si>
     <t>1,42 + 1,72 + 1,78 + 0,68 + 2,34 + 0,46 + 1,02 + 1,12 + 5,58 + 1,28 + 3,24 + 0,56 + 0,56 + 8,48 + 0,46 + 1,18 + 8,10</t>
-  </si>
-  <si>
-    <t>0,08 A</t>
   </si>
   <si>
     <r>
@@ -459,19 +447,32 @@
     <t>1,82 + 2,10 + 2,36 + 2,44 + 2,86 + 2,74 + 2,36 + 2,72 + 2,50 + 2,58 + 2,70 + 2,82 + 3,08 + 2,98 + 2,84 + 1,02 + 3,44 + 2,48 + 3,32 + 1,70 + 1,94 + 2,72 + 3,44 + 3,00 + 1,50 + 2,38</t>
   </si>
   <si>
-    <t>1,68 + 4,08 + 3,64 + 2,60 + 4,80 + 3,80 + 5,18</t>
+    <t>1,68 + 4,08 + 3,64 + 2,60 + 4,80 + 3,80 + 5,18 + 2,94 + 5,98 + 3,96 + 7,00 + 4,18 + 5,44 + 5,64</t>
   </si>
   <si>
-    <t>2,14 + 5,00 + 2,50 + 2,10 + 2,30 + 1,38 + 7,58 + 8,20 + 7,76 + 8,24 + 8,38 + 7,70</t>
+    <t>0,080 A</t>
+  </si>
+  <si>
+    <t>0,160 A</t>
+  </si>
+  <si>
+    <t>0,200 A</t>
+  </si>
+  <si>
+    <t>0,120 A</t>
+  </si>
+  <si>
+    <t>2,14 + 5,00 + 2,50 + 2,10 + 2,30 + 1,38 + 7,58 + 8,20 + 7,76 + 8,24 + 8,36 + 7,70 + 8,18 + 4,94 + 5,40 + 7,80 + 5,60 + 2,62 + 6,54 + 1,38 + 5,30 + 5,06 + 4,74 + 5,58 + 4,04 + 5,08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -740,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,11 +884,53 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,53 +950,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,7 +1323,7 @@
   <dimension ref="A1:AK156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,302 +1339,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
+      <c r="A1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="63" t="s">
-        <v>9</v>
-      </c>
       <c r="AK7" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="3">
         <v>45139</v>
       </c>
@@ -1715,11 +1725,11 @@
       <c r="AI8" s="3">
         <v>45168</v>
       </c>
-      <c r="AJ8" s="64"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="25"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1804,11 +1814,11 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
+      <c r="A10" s="71" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>20230727003</v>
@@ -1889,11 +1899,11 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
+      <c r="A11" s="71" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>20230727005</v>
@@ -1953,11 +1963,11 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+      <c r="A12" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>20230727002</v>
@@ -2006,25 +2016,25 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2">
         <f>K156</f>
-        <v>63.280000000000008</v>
+        <v>135.52000000000001</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="16">
         <f>SUM(F12:AI12)</f>
-        <v>634.5</v>
+        <v>706.74</v>
       </c>
       <c r="AK12" s="19">
         <f t="shared" si="0"/>
-        <v>134.5</v>
+        <v>206.74</v>
       </c>
     </row>
     <row r="13" spans="1:37" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
+      <c r="A13" s="72" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>20230809001</v>
@@ -2073,178 +2083,178 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2">
         <f>P156</f>
-        <v>25.78</v>
+        <v>60.92</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2">
         <f>SUM(F13:AI13)</f>
-        <v>183.27</v>
+        <v>218.41000000000003</v>
       </c>
       <c r="AK13" s="7">
         <f t="shared" si="0"/>
-        <v>-316.73</v>
+        <v>-281.58999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D16" s="9"/>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>45140</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
@@ -2377,24 +2387,24 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="60">
+        <v>22</v>
+      </c>
+      <c r="B31" s="50">
         <v>0</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="61"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="51"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -2403,25 +2413,25 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="57">
+        <v>14</v>
+      </c>
+      <c r="B32" s="63">
         <f>SUM(2.18 + 0.8 + 5.66 + 5.46 + 6.21 + 0.3 + 2.38 + 0.76 + 0.86 + 3.44 + 4.8 + 2.14 + 1.52 + 1.82 + 1.56 + 1.84 + 3.96 + 0.66 + 5.88 + 5.94 + 1.08 + 0.08 + 0.1 + 0.14)</f>
         <v>59.570000000000007</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
@@ -2433,7 +2443,7 @@
         <v>45141</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="28"/>
@@ -2566,7 +2576,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" s="37">
         <v>0</v>
@@ -2592,7 +2602,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="24">
         <f>SUM(1.42 + 1.72 + 1.78 + 0.68 + 2.34 + 0.46 + 1.02 + 1.12 + 5.58 + 1.28 + 3.24 + 0.56 + 0.56 + 8.48 + 0.46 + 1.18 + 8.1)</f>
@@ -2622,11 +2632,11 @@
         <v>45142</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="28"/>
@@ -2757,7 +2767,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="37">
         <v>0</v>
@@ -2785,7 +2795,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="24">
         <f>SUM(3.88 + 0.24 + 3.32 + 0.8 + 4.7 + 3.59 + 3.98 + 0.7 + 0.32 + 2.68 + 0.98 + 0.84 + 2.94 + 7.4 + 4.7 + 3.64 + 3.98 + 3.28 + 7.52)</f>
@@ -2818,11 +2828,11 @@
         <v>45143</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="28"/>
@@ -2953,7 +2963,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" s="37">
         <v>0</v>
@@ -2981,7 +2991,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="24">
         <f>SUM(1.78 + 8.46 + 3.42 + 1.74 + 3.46 + 7.74 + 3.7 + 6.58 + 1.82)</f>
@@ -3014,13 +3024,13 @@
         <v>45145</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" s="27"/>
-      <c r="D57" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="51"/>
+      <c r="D57" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="65"/>
       <c r="F57" s="28"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
@@ -3041,8 +3051,8 @@
       <c r="A58" s="26"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
       <c r="F58" s="30"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -3063,8 +3073,8 @@
       <c r="A59" s="26"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="53"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="30"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
@@ -3085,8 +3095,8 @@
       <c r="A60" s="26"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="53"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="30"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
@@ -3107,8 +3117,8 @@
       <c r="A61" s="26"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="53"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="30"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
@@ -3129,8 +3139,8 @@
       <c r="A62" s="26"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="55"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="32"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
@@ -3149,7 +3159,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B63" s="37">
         <v>0</v>
@@ -3177,7 +3187,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="24">
         <f>SUM(0.6 + 3.42 + 3 + 3.74 + 3.82 + 3.78 + 3.82 + 3.3 + 4.24 + 7.73 + 7.66 + 6.76)</f>
@@ -3210,22 +3220,22 @@
         <v>45146</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
       <c r="J65" s="29"/>
       <c r="K65" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
@@ -3349,7 +3359,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B71" s="37">
         <v>0</v>
@@ -3381,7 +3391,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" s="24">
         <f>SUM(2.22 + 2.08)</f>
@@ -3424,14 +3434,14 @@
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
       <c r="J73" s="29"/>
       <c r="K73" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
@@ -3577,7 +3587,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="38"/>
@@ -3606,7 +3616,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -3643,14 +3653,14 @@
       <c r="D82" s="28"/>
       <c r="E82" s="29"/>
       <c r="F82" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
       <c r="J82" s="29"/>
       <c r="K82" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L82" s="34"/>
       <c r="M82" s="34"/>
@@ -3818,7 +3828,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
@@ -3847,7 +3857,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3880,11 +3890,11 @@
         <v>45153</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="28"/>
@@ -4059,7 +4069,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="37">
         <v>0</v>
@@ -4087,7 +4097,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B101" s="24">
         <f>SUM(3.42 + 3.74 + 3.58 + 1.12 + 3.4 + 3.52 + 3.22 + 3.72 + 2.62 + 3.34 + 3.32 + 2.78 + 2.56 + 2.96 + 2.64 + 2.92 + 3.02 + 3.16 + 3.36 + 3.44 + 3.4 + 3.06 + 3.3 + 3.68 + 3.34 + 3.24 + 3.24 + 3.62 + 3.64 + 3.86 + 3.62 + 3.6 + 3.34 + 3.8 + 3.26 + 3.64 + 3.34 + 3.2 + 3.54 + 3.44)</f>
@@ -4120,11 +4130,11 @@
         <v>45154</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="28"/>
@@ -4299,7 +4309,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B110" s="37">
         <v>0</v>
@@ -4327,7 +4337,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B111" s="24">
         <f>SUM(3.62 + 3.66 + 3.78 + 3.18 + 3.24 + 3.28 + 3.56 + 3.96 + 3.38 + 3.48 + 3.1 + 2.9 + 4.02 + 3.56 + 3.52 + 2.18 + 2.14 + 3.2 + 2.66 + 3.56 + 3.22 + 3.26 + 3.6 + 3.52 + 3.46 + 3.24 + 3.32 + 3.7 + 3.38 + 2.22 + 3.82 + 3.7 + 2.46 + 1.6 + 1.76 + 2.46 + 3.46 + 3.1 + 2.12 + 1.76 + 2.66 + 3.12 + 2.06 + 2.74 + 3.78 + 2.02)</f>
@@ -4360,11 +4370,11 @@
         <v>45159</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C112" s="29"/>
       <c r="D112" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E112" s="29"/>
       <c r="F112" s="28"/>
@@ -4561,7 +4571,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B121" s="37">
         <v>0</v>
@@ -4589,7 +4599,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B122" s="24">
         <f>3.68 + 3.02 + 3.58 + 2 + 3.24 + 3.44 + 3.5 + 3.58 + 3.22 + 3.44 + 2.92 + 3.4 + 2.66 + 2.86 + 3.24 + 3.26 + 3.3 + 2.84 + 2.98 + 2.3 + 3.2 + 2.64 + 1.9 + 2.68 + 3.44 + 3.7 + 3.44 + 3.84 + 2.08 + 1.66 + 2.86 + 3.28 + 3.42 + 3.36 + 2.94</f>
@@ -4622,11 +4632,11 @@
         <v>45160</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C123" s="29"/>
       <c r="D123" s="28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E123" s="29"/>
       <c r="F123" s="28"/>
@@ -4640,7 +4650,7 @@
       <c r="N123" s="34"/>
       <c r="O123" s="29"/>
       <c r="P123" s="28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q123" s="34"/>
       <c r="R123" s="34"/>
@@ -4803,7 +4813,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B131" s="37">
         <v>1.7</v>
@@ -4833,7 +4843,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B132" s="24">
         <f>2.08 + 3.32 + 3.26 + 2.68 + 3.26 + 3.3 + 3.28 + 3.58 + 2.96 + 2.94 + 3.1 + 3.24 + 3.1 + 3.12 + 3.64 + 2.8 + 2.5 + 3.38 + 3.14 + 2.76 + 3.14 + 3.1 + 2.98</f>
@@ -4871,7 +4881,7 @@
       <c r="B133" s="27"/>
       <c r="C133" s="27"/>
       <c r="D133" s="28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E133" s="29"/>
       <c r="F133" s="28"/>
@@ -4885,7 +4895,7 @@
       <c r="N133" s="34"/>
       <c r="O133" s="29"/>
       <c r="P133" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q133" s="27"/>
       <c r="R133" s="27"/>
@@ -5004,7 +5014,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B139" s="37"/>
       <c r="C139" s="38"/>
@@ -5032,7 +5042,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
@@ -5065,11 +5075,11 @@
         <v>45163</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C141" s="27"/>
       <c r="D141" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E141" s="29"/>
       <c r="F141" s="28"/>
@@ -5083,7 +5093,7 @@
       <c r="N141" s="34"/>
       <c r="O141" s="29"/>
       <c r="P141" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q141" s="27"/>
       <c r="R141" s="27"/>
@@ -5202,7 +5212,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B147" s="37"/>
       <c r="C147" s="38"/>
@@ -5226,7 +5236,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B148" s="24">
         <f>3 + 3.52 + 3.18 + 4.02 + 2.42 + 3.34 + 3.28 + 3.02 + 2.98 + 3.38 + 3.62 + 3.62 + 3.66 + 1.88 + 2.64 + 2.5 + 2.96 + 3.4 + 3.52 + 3.46 + 1.32 + 2.12 + 3.12 + 0.68 + 1.08 + 3.18 + 3.28 + 2.84</f>
@@ -5278,7 +5288,7 @@
       <c r="N149" s="34"/>
       <c r="O149" s="29"/>
       <c r="P149" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q149" s="27"/>
       <c r="R149" s="27"/>
@@ -5397,7 +5407,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B155" s="37"/>
       <c r="C155" s="38"/>
@@ -5421,7 +5431,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B156" s="24"/>
       <c r="C156" s="24"/>
@@ -5433,16 +5443,16 @@
       <c r="I156" s="24"/>
       <c r="J156" s="24"/>
       <c r="K156" s="24">
-        <f>2.14 + 5 + 2.5 + 2.1 + 2.3 + 1.38 + 7.58 + 8.2 + 7.76 + 8.24 + 8.38 + 7.7</f>
-        <v>63.280000000000008</v>
+        <f>2.14 + 5 + 2.5 + 2.1 + 2.3 + 1.38 + 7.58 + 8.2 + 7.76 + 8.24 + 8.36 + 7.7 + 8.18 + 4.94 + 5.4 + 7.8 + 5.6 + 2.62 + 6.54 + 1.38 + 5.3 + 5.06 + 4.74 + 5.58 + 4.04 + 5.08</f>
+        <v>135.52000000000001</v>
       </c>
       <c r="L156" s="24"/>
       <c r="M156" s="24"/>
       <c r="N156" s="24"/>
       <c r="O156" s="24"/>
       <c r="P156" s="25">
-        <f>1.68 + 4.08 + 3.64 + 2.6 + 4.8 + 3.8 + 5.18</f>
-        <v>25.78</v>
+        <f>1.68 + 4.08 + 3.64 + 2.6 + 4.8 + 3.8 + 5.18 + 2.94 + 5.98 + 3.96 + 7 + 4.18 + 5.44 + 5.64</f>
+        <v>60.92</v>
       </c>
       <c r="Q156" s="25"/>
       <c r="R156" s="25"/>
@@ -5452,70 +5462,176 @@
   </sheetData>
   <autoFilter ref="A7:C12"/>
   <mergeCells count="258">
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:J156"/>
-    <mergeCell ref="K156:O156"/>
-    <mergeCell ref="P156:T156"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:C154"/>
-    <mergeCell ref="D149:E154"/>
-    <mergeCell ref="F149:J154"/>
-    <mergeCell ref="K149:O154"/>
-    <mergeCell ref="P149:T154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="K155:O155"/>
-    <mergeCell ref="P155:T155"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="K140:O140"/>
-    <mergeCell ref="P140:T140"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:C138"/>
-    <mergeCell ref="D133:E138"/>
-    <mergeCell ref="F133:J138"/>
-    <mergeCell ref="K133:O138"/>
-    <mergeCell ref="P133:T138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:J139"/>
-    <mergeCell ref="K139:O139"/>
-    <mergeCell ref="P139:T139"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:J132"/>
-    <mergeCell ref="K132:O132"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="B123:C130"/>
-    <mergeCell ref="D123:E130"/>
-    <mergeCell ref="F123:J130"/>
-    <mergeCell ref="K123:O130"/>
-    <mergeCell ref="P123:T130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:J131"/>
-    <mergeCell ref="K131:O131"/>
-    <mergeCell ref="P131:T131"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="K101:O101"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:C99"/>
-    <mergeCell ref="D92:E99"/>
-    <mergeCell ref="F92:J99"/>
-    <mergeCell ref="K92:O99"/>
-    <mergeCell ref="P92:T99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:J148"/>
+    <mergeCell ref="K148:O148"/>
+    <mergeCell ref="P148:T148"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:C146"/>
+    <mergeCell ref="D141:E146"/>
+    <mergeCell ref="F141:J146"/>
+    <mergeCell ref="K141:O146"/>
+    <mergeCell ref="P141:T146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="P147:T147"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="K122:O122"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="B112:C120"/>
+    <mergeCell ref="D112:E120"/>
+    <mergeCell ref="F112:J120"/>
+    <mergeCell ref="K112:O120"/>
+    <mergeCell ref="P112:T120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="K121:O121"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="K111:O111"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="B102:C109"/>
+    <mergeCell ref="D102:E109"/>
+    <mergeCell ref="F102:J109"/>
+    <mergeCell ref="K102:O109"/>
+    <mergeCell ref="P102:T109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="K91:O91"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="B82:C89"/>
+    <mergeCell ref="D82:E89"/>
+    <mergeCell ref="F82:J89"/>
+    <mergeCell ref="K82:O89"/>
+    <mergeCell ref="P82:T89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="K90:O90"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T46"/>
+    <mergeCell ref="B22:T22"/>
+    <mergeCell ref="B24:T24"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P25:T30"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P65:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="K81:O81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="K80:O80"/>
+    <mergeCell ref="B73:C79"/>
+    <mergeCell ref="D73:E79"/>
+    <mergeCell ref="F73:J79"/>
+    <mergeCell ref="K73:O79"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="P73:T79"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T54"/>
+    <mergeCell ref="P57:T62"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="K55:O55"/>
+    <mergeCell ref="D49:E54"/>
+    <mergeCell ref="F49:J54"/>
+    <mergeCell ref="K49:O54"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:C70"/>
+    <mergeCell ref="D65:E70"/>
+    <mergeCell ref="F65:J70"/>
+    <mergeCell ref="K65:O70"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:C62"/>
+    <mergeCell ref="D57:E62"/>
+    <mergeCell ref="F57:J62"/>
+    <mergeCell ref="K57:O62"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C38"/>
+    <mergeCell ref="D33:E38"/>
+    <mergeCell ref="F33:J38"/>
+    <mergeCell ref="K33:O38"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:C30"/>
+    <mergeCell ref="D25:E30"/>
+    <mergeCell ref="F25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="A1:AK6"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="F7:AI7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A19:T21"/>
     <mergeCell ref="A73:A79"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -5540,176 +5656,70 @@
     <mergeCell ref="D41:E46"/>
     <mergeCell ref="F41:J46"/>
     <mergeCell ref="K41:O46"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="A1:AK6"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="F7:AI7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="A19:T21"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C38"/>
-    <mergeCell ref="D33:E38"/>
-    <mergeCell ref="F33:J38"/>
-    <mergeCell ref="K33:O38"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:C30"/>
-    <mergeCell ref="D25:E30"/>
-    <mergeCell ref="F25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:C70"/>
-    <mergeCell ref="D65:E70"/>
-    <mergeCell ref="F65:J70"/>
-    <mergeCell ref="K65:O70"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="D57:E62"/>
-    <mergeCell ref="F57:J62"/>
-    <mergeCell ref="K57:O62"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="K72:O72"/>
-    <mergeCell ref="P73:T79"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T54"/>
-    <mergeCell ref="P57:T62"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="K55:O55"/>
-    <mergeCell ref="D49:E54"/>
-    <mergeCell ref="F49:J54"/>
-    <mergeCell ref="K49:O54"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P65:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="K81:O81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="K80:O80"/>
-    <mergeCell ref="B73:C79"/>
-    <mergeCell ref="D73:E79"/>
-    <mergeCell ref="F73:J79"/>
-    <mergeCell ref="K73:O79"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T46"/>
-    <mergeCell ref="B22:T22"/>
-    <mergeCell ref="B24:T24"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P25:T30"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="K91:O91"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="B82:C89"/>
-    <mergeCell ref="D82:E89"/>
-    <mergeCell ref="F82:J89"/>
-    <mergeCell ref="K82:O89"/>
-    <mergeCell ref="P82:T89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="K90:O90"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:J111"/>
-    <mergeCell ref="K111:O111"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="B102:C109"/>
-    <mergeCell ref="D102:E109"/>
-    <mergeCell ref="F102:J109"/>
-    <mergeCell ref="K102:O109"/>
-    <mergeCell ref="P102:T109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="K110:O110"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="K122:O122"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="A112:A120"/>
-    <mergeCell ref="B112:C120"/>
-    <mergeCell ref="D112:E120"/>
-    <mergeCell ref="F112:J120"/>
-    <mergeCell ref="K112:O120"/>
-    <mergeCell ref="P112:T120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="K121:O121"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:J148"/>
-    <mergeCell ref="K148:O148"/>
-    <mergeCell ref="P148:T148"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:C146"/>
-    <mergeCell ref="D141:E146"/>
-    <mergeCell ref="F141:J146"/>
-    <mergeCell ref="K141:O146"/>
-    <mergeCell ref="P141:T146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F147:J147"/>
-    <mergeCell ref="K147:O147"/>
-    <mergeCell ref="P147:T147"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="K101:O101"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:C99"/>
+    <mergeCell ref="D92:E99"/>
+    <mergeCell ref="F92:J99"/>
+    <mergeCell ref="K92:O99"/>
+    <mergeCell ref="P92:T99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="K132:O132"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B123:C130"/>
+    <mergeCell ref="D123:E130"/>
+    <mergeCell ref="F123:J130"/>
+    <mergeCell ref="K123:O130"/>
+    <mergeCell ref="P123:T130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:J131"/>
+    <mergeCell ref="K131:O131"/>
+    <mergeCell ref="P131:T131"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="K140:O140"/>
+    <mergeCell ref="P140:T140"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:C138"/>
+    <mergeCell ref="D133:E138"/>
+    <mergeCell ref="F133:J138"/>
+    <mergeCell ref="K133:O138"/>
+    <mergeCell ref="P133:T138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:J139"/>
+    <mergeCell ref="K139:O139"/>
+    <mergeCell ref="P139:T139"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:J156"/>
+    <mergeCell ref="K156:O156"/>
+    <mergeCell ref="P156:T156"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:C154"/>
+    <mergeCell ref="D149:E154"/>
+    <mergeCell ref="F149:J154"/>
+    <mergeCell ref="K149:O154"/>
+    <mergeCell ref="P149:T154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="K155:O155"/>
+    <mergeCell ref="P155:T155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
